--- a/documents/database/DB 테이블 정의서.xlsx
+++ b/documents/database/DB 테이블 정의서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yskim\Documents\ReactFTP\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\workspace-spring-tool-suite-4-4.10.0.RELEASE\ReactFTP\documents\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B365DC-CC99-409B-A070-F03A57FE0EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8565" yWindow="4410" windowWidth="17295" windowHeight="9300" xr2:uid="{7E8481EB-A05A-4F8A-A050-75E7FD226F4A}"/>
+    <workbookView xWindow="-8568" yWindow="4416" windowWidth="17292" windowHeight="9300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="MEMBER" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="AUTHORITY" sheetId="5" r:id="rId5"/>
     <sheet name="ROLE" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
   <si>
     <t>Table Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PERMISSION_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,81 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PERMISSION_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERMISSION_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>읽기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>READ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER002</t>
-  </si>
-  <si>
-    <t>쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WRITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER003</t>
-  </si>
-  <si>
-    <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DELETE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER004</t>
-  </si>
-  <si>
-    <t>컨슈머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONSUMER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER005</t>
-  </si>
-  <si>
-    <t>글쓴이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PER006</t>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ADMIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,13 +480,29 @@
   </si>
   <si>
     <t>ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,7 +543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -719,17 +655,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -918,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,72 +868,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1022,39 +968,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,62 +1286,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C245AB6-0978-4529-BAFE-FCF06A80D883}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="J4:M22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="41.09765625" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K4"/>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1449,12 +1365,12 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10">
         <v>20</v>
@@ -1462,19 +1378,19 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <v>30</v>
@@ -1483,16 +1399,16 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="K7"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="17">
         <v>20</v>
@@ -1501,16 +1417,16 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="21" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="K8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="23">
         <v>40</v>
@@ -1519,16 +1435,16 @@
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="25" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="K9"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="17">
         <v>20</v>
@@ -1537,16 +1453,16 @@
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="21" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="K10"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="17">
         <v>150</v>
@@ -1555,178 +1471,178 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="21" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="17">
         <v>100</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="21" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="17">
         <v>32</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="17">
         <v>4</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H14" s="21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="17">
         <v>4</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="K15"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="21" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B17" s="19" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="17">
         <v>1</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="21" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B18" s="22" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="16" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="21" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B19" s="22" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="24" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="25" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="27">
         <v>1</v>
@@ -1735,66 +1651,66 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="29" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1808,60 +1724,60 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A694C6CA-5C4B-404E-8D24-579382BD4137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="41.09765625" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K4"/>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1885,34 +1801,34 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10">
         <v>15</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <v>100</v>
@@ -1921,16 +1837,16 @@
       <c r="F7" s="16"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K7"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="17">
         <v>1000</v>
@@ -1939,242 +1855,240 @@
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="21" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="16" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="25" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="K9"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="21" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="K10"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="19" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D11" s="17">
         <v>9</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
-        <v>21</v>
+      <c r="F11" s="16">
+        <v>0</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="21" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="17">
         <v>4</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="17">
         <v>15</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="27">
         <v>32</v>
       </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="F14" s="28"/>
       <c r="G14" s="28" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="41"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="34"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="30"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2187,61 +2101,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60CB824-92CE-4E7F-9F82-0905756E7651}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="J3:N21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="41.09765625" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+        <v>69</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K4"/>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2265,34 +2179,34 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10">
         <v>50</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B7" s="8" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <v>100</v>
@@ -2301,16 +2215,16 @@
       <c r="F7" s="16"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="K7"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="17">
         <v>15</v>
@@ -2318,246 +2232,246 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="24"/>
       <c r="F9" s="16" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="25" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="K9"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B10" s="19" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="21" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="K10"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="19" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D11" s="17">
         <v>9</v>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="16" t="s">
-        <v>21</v>
+      <c r="F11" s="16">
+        <v>0</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="21" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="K11"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="17">
         <v>4</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="K12"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="17">
         <v>10</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="21" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>10</v>
+        <v>74</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="27">
         <v>9</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="29" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K14"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="41"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="34"/>
       <c r="K15"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="30"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="37"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="30"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="37"/>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="30"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="37"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="30"/>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2570,57 +2484,60 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5B8BFE-4D5E-40F5-810D-AF5E7E4F58EB}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="41.09765625" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2642,50 +2559,36 @@
       <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10">
         <v>32</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <v>50</v>
@@ -2694,54 +2597,36 @@
       <c r="F7" s="16"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="19" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="17">
         <v>100</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
       <c r="H8" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="18"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B9" s="22" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="23">
         <v>20</v>
@@ -2750,25 +2635,16 @@
       <c r="F9" s="16"/>
       <c r="G9" s="24"/>
       <c r="H9" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="27">
         <v>40</v>
@@ -2777,164 +2653,135 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="41"/>
-      <c r="J11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
-      <c r="J12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="37"/>
-      <c r="J13" s="18"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="37"/>
+        <v>87</v>
+      </c>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="30"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="30"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="30"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
-    <mergeCell ref="J5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2942,57 +2789,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2882980D-5192-46DD-A05B-BC525F060EC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="41.09765625" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3014,18 +2861,18 @@
       <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="44" t="s">
+      <c r="J5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="45"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10">
         <v>4</v>
@@ -3033,25 +2880,25 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="J6" s="13" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <v>15</v>
@@ -3060,161 +2907,161 @@
       <c r="F7" s="16"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="41"/>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
       <c r="J8" s="16" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37"/>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="30"/>
       <c r="J9" s="16" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="37"/>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="30"/>
       <c r="J10" s="18"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="37"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="30"/>
       <c r="J11" s="18"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="30"/>
       <c r="J12" s="18"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="37"/>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="30"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="37"/>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3228,57 +3075,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EBC896-907D-4936-8EE4-A9E79131F3E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.8984375" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" customWidth="1"/>
+    <col min="8" max="8" width="41.09765625" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="18.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3300,18 +3147,18 @@
       <c r="H5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" s="45"/>
+      <c r="J5" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="42"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="10">
         <v>4</v>
@@ -3319,25 +3166,25 @@
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M6" s="15"/>
     </row>
-    <row r="7" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="8" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="10">
         <v>15</v>
@@ -3346,161 +3193,161 @@
       <c r="F7" s="16"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M7" s="18"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="41"/>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
       <c r="J8" s="16" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="M8" s="18"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37"/>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="30"/>
       <c r="J9" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="37"/>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="30"/>
       <c r="J10" s="18"/>
       <c r="K10"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="37"/>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="30"/>
       <c r="J11" s="18"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="30"/>
       <c r="J12" s="18"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="37"/>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="30"/>
       <c r="J13" s="18"/>
       <c r="M13" s="18"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I25" s="37"/>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="30"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I22" s="30"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
